--- a/demo_lexicon/dataset_clean_reviews.xlsx
+++ b/demo_lexicon/dataset_clean_reviews.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\unmsm\Thesis_project_QuispeCabello_Sanchez_Wong\demo_lexicon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC03925-59DC-4E6F-9E5B-908D6A94E7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4E812E-C4EE-4EC2-84B5-F8F1AE17A77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10392" yWindow="3888" windowWidth="17280" windowHeight="11376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10128" yWindow="6960" windowWidth="17280" windowHeight="11376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1125</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -15361,8 +15372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D186" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D186" sqref="D186"/>
+    <sheetView tabSelected="1" topLeftCell="D277" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D298" sqref="D298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26464,7 +26475,7 @@
       <c r="C253" t="s">
         <v>44</v>
       </c>
-      <c r="D253" s="3" t="s">
+      <c r="D253" s="6" t="s">
         <v>411</v>
       </c>
       <c r="E253">
@@ -28532,7 +28543,7 @@
       <c r="C300" t="s">
         <v>64</v>
       </c>
-      <c r="D300" s="3" t="s">
+      <c r="D300" s="6" t="s">
         <v>506</v>
       </c>
       <c r="E300">
